--- a/examples/neutralization-submission.xlsx
+++ b/examples/neutralization-submission.xlsx
@@ -441,7 +441,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B2:B100" type="list">
-      <formula1>=Terminology!A2:A4</formula1>
+      <formula1>=Terminology!$A$2:$A$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/examples/neutralization-submission.xlsx
+++ b/examples/neutralization-submission.xlsx
@@ -351,7 +351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -397,6 +397,13 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>- Qualitative measure: The qualitative assay result.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>- Titer: The concentration</t>
         </is>
       </c>
     </row>
@@ -412,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -423,6 +430,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="15"/>
     <col customWidth="1" max="2" min="2" width="19"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -434,6 +442,11 @@
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Qualitative measure</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Titer</t>
         </is>
       </c>
     </row>
